--- a/player-analysis/server/customer_model_data/effective_campaigns.csv.xlsx
+++ b/player-analysis/server/customer_model_data/effective_campaigns.csv.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Divakar\Angular\spec\analysis_reserach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prototype_login\customer_model_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Increase</t>
   </si>
@@ -32,45 +32,6 @@
     <t>Customers</t>
   </si>
   <si>
-    <t>H883 EN EMAIL Wagered £100 - £500 - £5 Bonus</t>
-  </si>
-  <si>
-    <t>H883 EN 5 Bonus</t>
-  </si>
-  <si>
-    <t>£10,250</t>
-  </si>
-  <si>
-    <t>2901 EN EMAIL Wagered over £500 - £10 Bonus</t>
-  </si>
-  <si>
-    <t>2901 EN 10 Bonus</t>
-  </si>
-  <si>
-    <t>£6,327</t>
-  </si>
-  <si>
-    <t>V309 YES EMAILFB, Active, Multi 13.09.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> V309 FB Web Offer</t>
-  </si>
-  <si>
-    <t>£6,027</t>
-  </si>
-  <si>
-    <t>1028 EN All FB EMAIL YES 09.09.16</t>
-  </si>
-  <si>
-    <t>1028 All FB 09.09.16</t>
-  </si>
-  <si>
-    <t>3043 EN EMAIL Lost £101 - £200 – £20 Bonus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3043 EN 20 Bonus</t>
-  </si>
-  <si>
     <t>Target_Group</t>
   </si>
   <si>
@@ -78,6 +39,21 @@
   </si>
   <si>
     <t>Execution_Date</t>
+  </si>
+  <si>
+    <t>FreeMoney 700CZK 10xTurnover 3x14</t>
+  </si>
+  <si>
+    <t>R33 DEP 100% 100</t>
+  </si>
+  <si>
+    <t>R49 RFB 100</t>
+  </si>
+  <si>
+    <t>R46 RFB 300</t>
+  </si>
+  <si>
+    <t>09-16-2016</t>
   </si>
 </sst>
 </file>
@@ -431,25 +407,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -458,93 +434,96 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>5786</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-8360</v>
       </c>
       <c r="D2">
         <v>213</v>
       </c>
-      <c r="E2" s="1">
-        <v>42625</v>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3">
+        <v>5695</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C3">
+        <v>-2214</v>
       </c>
       <c r="D3">
         <v>340</v>
       </c>
       <c r="E3" s="1">
-        <v>42625</v>
+        <v>42591</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
+      <c r="A4">
+        <v>5700</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1595</v>
       </c>
       <c r="D4" s="2">
         <v>26303</v>
       </c>
       <c r="E4" s="1">
-        <v>42626</v>
+        <v>42591</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
+      <c r="A5">
+        <v>5697</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>-7984</v>
       </c>
       <c r="D5">
         <v>26303</v>
       </c>
       <c r="E5" s="1">
-        <v>42626</v>
+        <v>42591</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
+      <c r="A6">
+        <v>5877</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>-3054</v>
       </c>
       <c r="D6">
         <v>26303</v>
       </c>
       <c r="E6" s="1">
-        <v>42626</v>
-      </c>
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
